--- a/biology/Biologie cellulaire et moléculaire/Laboratoire_de_spectrométrie_ionique_et_moléculaire/Laboratoire_de_spectrométrie_ionique_et_moléculaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Laboratoire_de_spectrométrie_ionique_et_moléculaire/Laboratoire_de_spectrométrie_ionique_et_moléculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laboratoire_de_spectrom%C3%A9trie_ionique_et_mol%C3%A9culaire</t>
+          <t>Laboratoire_de_spectrométrie_ionique_et_moléculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Laboratoire de spectrométrie ionique et moléculaire (LASIM) est une unité de recherche spécialisée dans la recherche en physique atomique, moléculaire et optique. Son siège est situé à Villeurbanne, dans le département du Rhône. Il fusionne avec le LPCML et le LPMCN pour devenir l'Institut lumière matière (UMR 5306) le 1er janvier 2013[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Laboratoire de spectrométrie ionique et moléculaire (LASIM) est une unité de recherche spécialisée dans la recherche en physique atomique, moléculaire et optique. Son siège est situé à Villeurbanne, dans le département du Rhône. Il fusionne avec le LPCML et le LPMCN pour devenir l'Institut lumière matière (UMR 5306) le 1er janvier 2013.
 Le laboratoire travaille sous plusieurs tutelles : le CNRS (UMR 5579) et l'université Claude-Bernard-Lyon-I.
-Les études sont effectuées par dix équipes[2] travaillant autour de quatre thèmes :
+Les études sont effectuées par dix équipes travaillant autour de quatre thèmes :
 Optique et nanosystèmes ;
 Ions, Agrégats et Biomolécules ;
 Spectroscopie, Laser et Applications ;
